--- a/results/mp/logistic/home-spam/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,174 +43,183 @@
     <t>return</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>thin</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>months</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>however</t>
   </si>
   <si>
     <t>lid</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>fit</t>
   </si>
   <si>
     <t>rust</t>
   </si>
   <si>
-    <t>1</t>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>lasted</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>fit</t>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>unit</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>put</t>
   </si>
   <si>
     <t>way</t>
   </si>
   <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
     <t>think</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>product</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>used</t>
   </si>
   <si>
@@ -223,24 +232,24 @@
     <t>negative</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>perfect</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -256,6 +265,9 @@
     <t>happy</t>
   </si>
   <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>potatoes</t>
   </si>
   <si>
@@ -265,16 +277,19 @@
     <t>great</t>
   </si>
   <si>
-    <t>ze</t>
+    <t>simple</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>cake</t>
+    <t>pressure</t>
   </si>
   <si>
     <t>nice</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>works</t>
@@ -644,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,10 +667,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,16 +749,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K3">
-        <v>0.9139784946236559</v>
+        <v>0.90625</v>
       </c>
       <c r="L3">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="M3">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -755,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -763,13 +778,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9595959595959596</v>
+        <v>0.9622641509433962</v>
       </c>
       <c r="C4">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -781,19 +796,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -813,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9576271186440678</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="C5">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D5">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -834,16 +849,16 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K5">
-        <v>0.8571428571428571</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L5">
-        <v>66</v>
+        <v>559</v>
       </c>
       <c r="M5">
-        <v>66</v>
+        <v>559</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -855,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -863,13 +878,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8918918918918919</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="C6">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="D6">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -881,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K6">
         <v>0.8478260869565217</v>
@@ -913,13 +928,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C7">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -931,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K7">
-        <v>0.8359133126934984</v>
+        <v>0.8440677966101695</v>
       </c>
       <c r="L7">
-        <v>540</v>
+        <v>249</v>
       </c>
       <c r="M7">
-        <v>540</v>
+        <v>249</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -955,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>106</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -963,13 +978,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8592592592592593</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C8">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -981,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K8">
-        <v>0.823728813559322</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>243</v>
+        <v>63</v>
       </c>
       <c r="M8">
-        <v>243</v>
+        <v>63</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1005,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1013,13 +1028,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8493150684931506</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C9">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1031,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K9">
-        <v>0.7445887445887446</v>
+        <v>0.7489177489177489</v>
       </c>
       <c r="L9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1055,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1063,13 +1078,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8207547169811321</v>
+        <v>0.8864864864864865</v>
       </c>
       <c r="C10">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="D10">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1081,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K10">
-        <v>0.6447368421052632</v>
+        <v>0.7236842105263158</v>
       </c>
       <c r="L10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1105,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1113,13 +1128,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8113207547169812</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C11">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="D11">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1131,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K11">
-        <v>0.6438356164383562</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1155,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1163,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7984496124031008</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C12">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D12">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1181,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K12">
-        <v>0.5945945945945946</v>
+        <v>0.5765765765765766</v>
       </c>
       <c r="L12">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M12">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1205,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1213,13 +1228,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7846153846153846</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C13">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1231,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K13">
-        <v>0.5314285714285715</v>
+        <v>0.5371428571428571</v>
       </c>
       <c r="L13">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1255,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1263,13 +1278,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7635135135135135</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C14">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="D14">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1281,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K14">
-        <v>0.492063492063492</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1305,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1313,13 +1328,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7628205128205128</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="C15">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D15">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1331,31 +1346,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K15">
-        <v>0.4782608695652174</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L15">
+        <v>30</v>
+      </c>
+      <c r="M15">
+        <v>30</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>33</v>
-      </c>
-      <c r="M15">
-        <v>33</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1363,13 +1378,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7547169811320755</v>
+        <v>0.8088235294117647</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1384,28 +1399,28 @@
         <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K16">
-        <v>0.4706355591311344</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L16">
-        <v>585</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>588</v>
+        <v>31</v>
       </c>
       <c r="N16">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>658</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1413,13 +1428,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.75</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="C17">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D17">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1431,31 +1446,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K17">
-        <v>0.4691358024691358</v>
+        <v>0.4448025785656728</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>552</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>557</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>43</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1463,13 +1478,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7471264367816092</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="C18">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1481,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K18">
-        <v>0.336986301369863</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="L18">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1505,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>484</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1513,13 +1528,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7464788732394366</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="C19">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="D19">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1531,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K19">
-        <v>0.3076923076923077</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1552,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>72</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1563,13 +1578,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.74</v>
+        <v>0.7816091954022989</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1581,31 +1596,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K20">
-        <v>0.1351351351351351</v>
+        <v>0.3085106382978723</v>
       </c>
       <c r="L20">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>352</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1613,13 +1628,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7307692307692307</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C21">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1631,31 +1646,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K21">
-        <v>0.05305039787798409</v>
+        <v>0.1274509803921569</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="N21">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>714</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1663,13 +1678,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7256637168141593</v>
+        <v>0.75</v>
       </c>
       <c r="C22">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1681,31 +1696,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K22">
-        <v>0.04498714652956298</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N22">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="O22">
-        <v>0.09999999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>743</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1713,49 +1728,49 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6666666666666666</v>
+        <v>0.7432432432432432</v>
       </c>
       <c r="C23">
+        <v>110</v>
+      </c>
+      <c r="D23">
+        <v>110</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>38</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23">
+        <v>0.05858854860186418</v>
+      </c>
+      <c r="L23">
         <v>44</v>
       </c>
-      <c r="D23">
-        <v>44</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>22</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K23">
-        <v>0.03463203463203463</v>
-      </c>
-      <c r="L23">
-        <v>32</v>
-      </c>
       <c r="M23">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N23">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="O23">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>892</v>
+        <v>707</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1763,13 +1778,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6545454545454545</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C24">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D24">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1781,7 +1796,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24">
+        <v>0.05648267008985879</v>
+      </c>
+      <c r="L24">
+        <v>44</v>
+      </c>
+      <c r="M24">
+        <v>47</v>
+      </c>
+      <c r="N24">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>735</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1789,13 +1828,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6538461538461539</v>
+        <v>0.7168141592920354</v>
       </c>
       <c r="C25">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1807,7 +1846,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25">
+        <v>0.05211726384364821</v>
+      </c>
+      <c r="L25">
+        <v>48</v>
+      </c>
+      <c r="M25">
+        <v>56</v>
+      </c>
+      <c r="N25">
+        <v>0.86</v>
+      </c>
+      <c r="O25">
+        <v>0.14</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>873</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1815,13 +1878,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.65</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="C26">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D26">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1833,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1841,13 +1904,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6172839506172839</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1859,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1867,13 +1930,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6116504854368932</v>
+        <v>0.6565656565656566</v>
       </c>
       <c r="C28">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D28">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1885,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1893,13 +1956,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5952380952380952</v>
+        <v>0.6407766990291263</v>
       </c>
       <c r="C29">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D29">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1911,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1919,13 +1982,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5769230769230769</v>
+        <v>0.62</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1937,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1945,13 +2008,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5769230769230769</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="C31">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D31">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1963,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1971,13 +2034,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5757575757575758</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="C32">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D32">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1989,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1997,13 +2060,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5555555555555556</v>
+        <v>0.5586592178770949</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2015,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>24</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2023,13 +2086,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5474860335195531</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C34">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2041,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2049,13 +2112,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5172413793103449</v>
+        <v>0.53</v>
       </c>
       <c r="C35">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="D35">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2067,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>42</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2075,13 +2138,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4698795180722892</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="C36">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D36">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2093,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2101,13 +2164,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.45</v>
+        <v>0.4948453608247423</v>
       </c>
       <c r="C37">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D37">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2119,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>110</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2127,13 +2190,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4231805929919137</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="C38">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="D38">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2145,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>214</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2153,13 +2216,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4142857142857143</v>
+        <v>0.4841269841269841</v>
       </c>
       <c r="C39">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D39">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2171,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>123</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2179,13 +2242,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3838383838383838</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C40">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D40">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2197,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2205,13 +2268,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3774834437086093</v>
+        <v>0.4380952380952381</v>
       </c>
       <c r="C41">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="D41">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2223,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>94</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2231,13 +2294,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3693693693693694</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2249,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2257,25 +2320,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3672316384180791</v>
+        <v>0.4123989218328841</v>
       </c>
       <c r="C43">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="D43">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="E43">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>112</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2283,13 +2346,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3608247422680412</v>
+        <v>0.3798449612403101</v>
       </c>
       <c r="C44">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D44">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2301,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2309,25 +2372,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3435374149659864</v>
+        <v>0.3311258278145696</v>
       </c>
       <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>101</v>
-      </c>
-      <c r="D45">
-        <v>101</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2335,13 +2398,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3398058252427185</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C46">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D46">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2353,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>68</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2361,13 +2424,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3225806451612903</v>
+        <v>0.3163265306122449</v>
       </c>
       <c r="C47">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D47">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2379,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>126</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2387,13 +2450,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2689655172413793</v>
+        <v>0.3009708737864077</v>
       </c>
       <c r="C48">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D48">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2405,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>106</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2413,13 +2476,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2408163265306122</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="C49">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="D49">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2431,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>558</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2439,13 +2502,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2240802675585284</v>
+        <v>0.2896551724137931</v>
       </c>
       <c r="C50">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D50">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2457,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>232</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2465,13 +2528,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2070707070707071</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="C51">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D51">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2483,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>157</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2491,13 +2554,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="C52">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="D52">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2509,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>132</v>
+        <v>555</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2517,25 +2580,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1877729257641921</v>
+        <v>0.2375690607734807</v>
       </c>
       <c r="C53">
         <v>43</v>
       </c>
       <c r="D53">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>186</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2543,25 +2606,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1712707182320442</v>
+        <v>0.233502538071066</v>
       </c>
       <c r="C54">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D54">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E54">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F54">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2569,25 +2632,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1566579634464752</v>
+        <v>0.2140468227424749</v>
       </c>
       <c r="C55">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="D55">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="E55">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>646</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2595,25 +2658,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1365853658536585</v>
+        <v>0.1830065359477124</v>
       </c>
       <c r="C56">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="D56">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>354</v>
+        <v>625</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2621,13 +2684,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1072463768115942</v>
+        <v>0.1790393013100437</v>
       </c>
       <c r="C57">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D57">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2639,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>308</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2647,25 +2710,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.08539944903581267</v>
+        <v>0.1295843520782396</v>
       </c>
       <c r="C58">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D58">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E58">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F58">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>332</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2673,25 +2736,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07653061224489796</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="C59">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D59">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E59">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>362</v>
+        <v>310</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2699,25 +2762,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.06189555125725339</v>
+        <v>0.09644670050761421</v>
       </c>
       <c r="C60">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D60">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E60">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>485</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2725,25 +2788,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.05313588850174216</v>
+        <v>0.09269662921348315</v>
       </c>
       <c r="C61">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D61">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E61">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="F61">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>1087</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2751,25 +2814,103 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.03574788334901223</v>
+        <v>0.0851581508515815</v>
       </c>
       <c r="C62">
+        <v>35</v>
+      </c>
+      <c r="D62">
         <v>38</v>
       </c>
-      <c r="D62">
-        <v>47</v>
-      </c>
       <c r="E62">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="F62">
-        <v>0.8100000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>1025</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.07321772639691715</v>
+      </c>
+      <c r="C63">
+        <v>38</v>
+      </c>
+      <c r="D63">
+        <v>41</v>
+      </c>
+      <c r="E63">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F63">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.05589519650655022</v>
+      </c>
+      <c r="C64">
+        <v>64</v>
+      </c>
+      <c r="D64">
+        <v>76</v>
+      </c>
+      <c r="E64">
+        <v>0.16</v>
+      </c>
+      <c r="F64">
+        <v>0.84</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.05534709193245779</v>
+      </c>
+      <c r="C65">
+        <v>59</v>
+      </c>
+      <c r="D65">
+        <v>65</v>
+      </c>
+      <c r="E65">
+        <v>0.09</v>
+      </c>
+      <c r="F65">
+        <v>0.91</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1007</v>
       </c>
     </row>
   </sheetData>
